--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Reln-Lrp8.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Reln-Lrp8.xlsx
@@ -537,22 +537,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H2">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I2">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J2">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N2">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O2">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P2">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q2">
-        <v>0.007583758709999999</v>
+        <v>0.3712649569575</v>
       </c>
       <c r="R2">
-        <v>0.03033503484</v>
+        <v>1.48505982783</v>
       </c>
       <c r="S2">
-        <v>9.584697574400273E-05</v>
+        <v>0.001532231761134744</v>
       </c>
       <c r="T2">
-        <v>6.712197208519935E-05</v>
+        <v>0.001086190165432302</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,22 +599,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H3">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I3">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J3">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>9.99588</v>
       </c>
       <c r="O3">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P3">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q3">
-        <v>0.04294563244</v>
+        <v>0.78988443348</v>
       </c>
       <c r="R3">
-        <v>0.25767379464</v>
+        <v>4.73930660088</v>
       </c>
       <c r="S3">
-        <v>0.0005427663442614378</v>
+        <v>0.003259898339240582</v>
       </c>
       <c r="T3">
-        <v>0.0005701517516672636</v>
+        <v>0.003466384400395709</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,22 +661,22 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H4">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I4">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J4">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N4">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O4">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P4">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q4">
-        <v>0.02195168553333333</v>
+        <v>0.9289688214540001</v>
       </c>
       <c r="R4">
-        <v>0.1317101132</v>
+        <v>5.573812928724</v>
       </c>
       <c r="S4">
-        <v>0.0002774353392967293</v>
+        <v>0.003833907581799247</v>
       </c>
       <c r="T4">
-        <v>0.0002914334065603745</v>
+        <v>0.004076752110375229</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,22 +723,22 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H5">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I5">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J5">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N5">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O5">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P5">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q5">
-        <v>0.018241144361</v>
+        <v>0.4910929545045</v>
       </c>
       <c r="R5">
-        <v>0.07296457744399999</v>
+        <v>1.964371818018</v>
       </c>
       <c r="S5">
-        <v>0.0002305398401990586</v>
+        <v>0.002026768776476344</v>
       </c>
       <c r="T5">
-        <v>0.0001614478557956564</v>
+        <v>0.001436764573385103</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,22 +785,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H6">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I6">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J6">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N6">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O6">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P6">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q6">
-        <v>0.007203752323</v>
+        <v>1.19023642788</v>
       </c>
       <c r="R6">
-        <v>0.043222513938</v>
+        <v>7.14141856728</v>
       </c>
       <c r="S6">
-        <v>9.104428299623267E-05</v>
+        <v>0.004912173971393877</v>
       </c>
       <c r="T6">
-        <v>9.563794435380236E-05</v>
+        <v>0.005223317249345959</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,22 +847,22 @@
         <v>27</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.012889</v>
+        <v>0.237063</v>
       </c>
       <c r="H7">
-        <v>0.025778</v>
+        <v>0.474126</v>
       </c>
       <c r="I7">
-        <v>0.001600145269867208</v>
+        <v>0.0171962745358539</v>
       </c>
       <c r="J7">
-        <v>0.001566596073214938</v>
+        <v>0.01702403082527085</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N7">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O7">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P7">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q7">
-        <v>0.028683296601</v>
+        <v>0.395268099344</v>
       </c>
       <c r="R7">
-        <v>0.172099779606</v>
+        <v>2.371608596064</v>
       </c>
       <c r="S7">
-        <v>0.000362512487369747</v>
+        <v>0.001631294105809103</v>
       </c>
       <c r="T7">
-        <v>0.0003808031427526422</v>
+        <v>0.001734622326336547</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.797511</v>
       </c>
       <c r="I8">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J8">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N8">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O8">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P8">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q8">
-        <v>0.15641583243</v>
+        <v>0.4163279902924999</v>
       </c>
       <c r="R8">
-        <v>0.93849499458</v>
+        <v>2.497967941755</v>
       </c>
       <c r="S8">
-        <v>0.001976854099686435</v>
+        <v>0.001718209483068961</v>
       </c>
       <c r="T8">
-        <v>0.002076596752255389</v>
+        <v>0.001827043032915472</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.797511</v>
       </c>
       <c r="I9">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J9">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>9.99588</v>
       </c>
       <c r="O9">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P9">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q9">
         <v>0.88575825052</v>
@@ -1013,10 +1013,10 @@
         <v>7.97182425468</v>
       </c>
       <c r="S9">
-        <v>0.01119461375276808</v>
+        <v>0.003655575078391391</v>
       </c>
       <c r="T9">
-        <v>0.01763916105298747</v>
+        <v>0.005830685702838448</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>0.797511</v>
       </c>
       <c r="I10">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J10">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N10">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O10">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P10">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q10">
-        <v>0.4527558559333333</v>
+        <v>1.041724286746</v>
       </c>
       <c r="R10">
-        <v>4.0748027034</v>
+        <v>9.375518580713999</v>
       </c>
       <c r="S10">
-        <v>0.005722133469828895</v>
+        <v>0.004299255851072358</v>
       </c>
       <c r="T10">
-        <v>0.009016267650685502</v>
+        <v>0.0068573641865189</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.797511</v>
       </c>
       <c r="I11">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J11">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N11">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O11">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P11">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q11">
-        <v>0.376225548413</v>
+        <v>0.5507003528455</v>
       </c>
       <c r="R11">
-        <v>2.257353290478</v>
+        <v>3.304202117073</v>
       </c>
       <c r="S11">
-        <v>0.004754908798122209</v>
+        <v>0.002272771926585515</v>
       </c>
       <c r="T11">
-        <v>0.004994818873591813</v>
+        <v>0.002416732159141086</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>0.797511</v>
       </c>
       <c r="I12">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J12">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N12">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O12">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P12">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q12">
-        <v>0.148578160159</v>
+        <v>1.33470377612</v>
       </c>
       <c r="R12">
-        <v>1.337203441431</v>
+        <v>12.01233398508</v>
       </c>
       <c r="S12">
-        <v>0.001877798049411863</v>
+        <v>0.005508398999563129</v>
       </c>
       <c r="T12">
-        <v>0.002958814207446089</v>
+        <v>0.008785961881109968</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>0.797511</v>
       </c>
       <c r="I13">
-        <v>0.0330031668946923</v>
+        <v>0.01928350705840976</v>
       </c>
       <c r="J13">
-        <v>0.04846681670206063</v>
+        <v>0.02863553537982009</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N13">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O13">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P13">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q13">
-        <v>0.5915960523330001</v>
+        <v>0.4432445625226666</v>
       </c>
       <c r="R13">
-        <v>5.324364470997001</v>
+        <v>3.989201062704</v>
       </c>
       <c r="S13">
-        <v>0.007476858724874812</v>
+        <v>0.001829295719728403</v>
       </c>
       <c r="T13">
-        <v>0.01178115816509436</v>
+        <v>0.002917748417296217</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H14">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I14">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J14">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N14">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O14">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P14">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q14">
-        <v>4.52884253712</v>
+        <v>20.78170486289125</v>
       </c>
       <c r="R14">
-        <v>18.11537014848</v>
+        <v>83.126819451565</v>
       </c>
       <c r="S14">
-        <v>0.05723756219081349</v>
+        <v>0.0857672873367778</v>
       </c>
       <c r="T14">
-        <v>0.04008366483944108</v>
+        <v>0.06079993013068865</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H15">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I15">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J15">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>9.99588</v>
       </c>
       <c r="O15">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P15">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q15">
-        <v>25.64612277568</v>
+        <v>44.21409795014</v>
       </c>
       <c r="R15">
-        <v>153.87673665408</v>
+        <v>265.28458770084</v>
       </c>
       <c r="S15">
-        <v>0.3241273096369804</v>
+        <v>0.1824741169333745</v>
       </c>
       <c r="T15">
-        <v>0.3404812315770767</v>
+        <v>0.1940322570185374</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H16">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I16">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J16">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N16">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O16">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P16">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q16">
-        <v>13.10903089173333</v>
+        <v>51.99940234729701</v>
       </c>
       <c r="R16">
-        <v>78.6541853504</v>
+        <v>311.996414083782</v>
       </c>
       <c r="S16">
-        <v>0.165677866867068</v>
+        <v>0.2146045144941426</v>
       </c>
       <c r="T16">
-        <v>0.1740371837817096</v>
+        <v>0.2281978343748868</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H17">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I17">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J17">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N17">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O17">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P17">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q17">
-        <v>10.893182874992</v>
+        <v>27.48912508304975</v>
       </c>
       <c r="R17">
-        <v>43.572731499968</v>
+        <v>109.956500332199</v>
       </c>
       <c r="S17">
-        <v>0.1376729765172532</v>
+        <v>0.1134491951064377</v>
       </c>
       <c r="T17">
-        <v>0.09641286660268555</v>
+        <v>0.08042347321502002</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H18">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I18">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J18">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N18">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O18">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P18">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q18">
-        <v>4.301911650256001</v>
+        <v>66.62396139934</v>
       </c>
       <c r="R18">
-        <v>25.811469901536</v>
+        <v>399.74376839604</v>
       </c>
       <c r="S18">
-        <v>0.0543695069110301</v>
+        <v>0.2749609080944577</v>
       </c>
       <c r="T18">
-        <v>0.05711273355533956</v>
+        <v>0.2923772778629972</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.697008</v>
+        <v>13.2696965</v>
       </c>
       <c r="H19">
-        <v>15.394016</v>
+        <v>26.539393</v>
       </c>
       <c r="I19">
-        <v>0.955569163110409</v>
+        <v>0.962568363774438</v>
       </c>
       <c r="J19">
-        <v>0.9355343710376265</v>
+        <v>0.9529269529955696</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N19">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O19">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P19">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q19">
-        <v>17.128990876272</v>
+        <v>22.12529038452533</v>
       </c>
       <c r="R19">
-        <v>102.773945257632</v>
+        <v>132.751742307152</v>
       </c>
       <c r="S19">
-        <v>0.2164839409872637</v>
+        <v>0.09131234180924769</v>
       </c>
       <c r="T19">
-        <v>0.227406690681374</v>
+        <v>0.09709618039343945</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,22 +1653,22 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G20">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H20">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I20">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J20">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.58839</v>
+        <v>1.5661025</v>
       </c>
       <c r="N20">
-        <v>1.17678</v>
+        <v>3.132205</v>
       </c>
       <c r="O20">
-        <v>0.0598989213972784</v>
+        <v>0.08910254124752841</v>
       </c>
       <c r="P20">
-        <v>0.04284574258344266</v>
+        <v>0.06380334813656102</v>
       </c>
       <c r="Q20">
-        <v>0.04657675627</v>
+        <v>0.020550397005</v>
       </c>
       <c r="R20">
-        <v>0.27946053762</v>
+        <v>0.12330238203</v>
       </c>
       <c r="S20">
-        <v>0.0005886581310344745</v>
+        <v>8.481266654690997E-05</v>
       </c>
       <c r="T20">
-        <v>0.0006183590196609923</v>
+        <v>9.018480752459898E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,22 +1715,22 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G21">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H21">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I21">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J21">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>9.99588</v>
       </c>
       <c r="O21">
-        <v>0.3391981681178738</v>
+        <v>0.1895700334653158</v>
       </c>
       <c r="P21">
-        <v>0.3639430491468098</v>
+        <v>0.2036171360339721</v>
       </c>
       <c r="Q21">
-        <v>0.2637568429466667</v>
+        <v>0.04372197912</v>
       </c>
       <c r="R21">
-        <v>2.37381158652</v>
+        <v>0.39349781208</v>
       </c>
       <c r="S21">
-        <v>0.003333478383863812</v>
+        <v>0.0001804431143093394</v>
       </c>
       <c r="T21">
-        <v>0.005252504765078366</v>
+        <v>0.0002878089122005068</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,22 +1777,22 @@
         <v>26</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G22">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H22">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I22">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J22">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.703133333333333</v>
+        <v>3.918658</v>
       </c>
       <c r="N22">
-        <v>5.1094</v>
+        <v>11.755974</v>
       </c>
       <c r="O22">
-        <v>0.173381345132341</v>
+        <v>0.2229498938159905</v>
       </c>
       <c r="P22">
-        <v>0.1860297057698482</v>
+        <v>0.2394704375372493</v>
       </c>
       <c r="Q22">
-        <v>0.1348194669555556</v>
+        <v>0.051420630276</v>
       </c>
       <c r="R22">
-        <v>1.2133752026</v>
+        <v>0.462785672484</v>
       </c>
       <c r="S22">
-        <v>0.001703909456147309</v>
+        <v>0.0002122158889762203</v>
       </c>
       <c r="T22">
-        <v>0.002684820930892668</v>
+        <v>0.0003384868654683171</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,22 +1839,22 @@
         <v>22</v>
       </c>
       <c r="E23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G23">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H23">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I23">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J23">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.415249</v>
+        <v>2.0715715</v>
       </c>
       <c r="N23">
-        <v>2.830498</v>
+        <v>4.143143</v>
       </c>
       <c r="O23">
-        <v>0.1440743190886603</v>
+        <v>0.1178609222742153</v>
       </c>
       <c r="P23">
-        <v>0.1030564665366078</v>
+        <v>0.08439626244404688</v>
       </c>
       <c r="Q23">
-        <v>0.1120306390903333</v>
+        <v>0.027183161223</v>
       </c>
       <c r="R23">
-        <v>0.672183834542</v>
+        <v>0.163098967338</v>
       </c>
       <c r="S23">
-        <v>0.001415893933085894</v>
+        <v>0.0001121864647158038</v>
       </c>
       <c r="T23">
-        <v>0.001487333204534747</v>
+        <v>0.0001192924965006727</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,22 +1901,22 @@
         <v>23</v>
       </c>
       <c r="E24">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G24">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H24">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I24">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J24">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.558907</v>
+        <v>5.02076</v>
       </c>
       <c r="N24">
-        <v>1.676721</v>
+        <v>15.06228</v>
       </c>
       <c r="O24">
-        <v>0.05689751093898381</v>
+        <v>0.2856533815595982</v>
       </c>
       <c r="P24">
-        <v>0.06104824720869879</v>
+        <v>0.3068202415136814</v>
       </c>
       <c r="Q24">
-        <v>0.04424289181766667</v>
+        <v>0.06588241272000001</v>
       </c>
       <c r="R24">
-        <v>0.3981860263590001</v>
+        <v>0.59294171448</v>
       </c>
       <c r="S24">
-        <v>0.0005591616955456162</v>
+        <v>0.0002719004941835312</v>
       </c>
       <c r="T24">
-        <v>0.0008810615015593388</v>
+        <v>0.000433684520228279</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,22 +1963,22 @@
         <v>27</v>
       </c>
       <c r="E25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F25">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G25">
-        <v>0.07915966666666667</v>
+        <v>0.013122</v>
       </c>
       <c r="H25">
-        <v>0.237479</v>
+        <v>0.039366</v>
       </c>
       <c r="I25">
-        <v>0.009827524725031546</v>
+        <v>0.0009518546312983252</v>
       </c>
       <c r="J25">
-        <v>0.01443221618709793</v>
+        <v>0.001413480799339442</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>2.225409</v>
+        <v>1.667354666666667</v>
       </c>
       <c r="N25">
-        <v>6.676227000000001</v>
+        <v>5.002064</v>
       </c>
       <c r="O25">
-        <v>0.2265497353248627</v>
+        <v>0.09486322763735172</v>
       </c>
       <c r="P25">
-        <v>0.2430767887545928</v>
+        <v>0.1018925743344893</v>
       </c>
       <c r="Q25">
-        <v>0.176162634637</v>
+        <v>0.021879027936</v>
       </c>
       <c r="R25">
-        <v>1.585463711733</v>
+        <v>0.196911251424</v>
       </c>
       <c r="S25">
-        <v>0.002226423125354441</v>
+        <v>9.029600256652051E-05</v>
       </c>
       <c r="T25">
-        <v>0.003508136765371818</v>
+        <v>0.0001440231974170674</v>
       </c>
     </row>
   </sheetData>
